--- a/M1/Exercise6_Analysis.xlsx
+++ b/M1/Exercise6_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Studium\Robo\robo\M1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D249B-4F45-43EB-8902-1B6FDE5D8789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC808E6-86FD-4E08-89AA-1A86B25F0EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{99C1BA2D-7FAF-4818-845A-03D610AFD5E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Distance in mm</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Speed mm/ms</t>
+  </si>
+  <si>
+    <t>Speed mm/s</t>
+  </si>
+  <si>
+    <t>Gewünschter speed (mm/s):</t>
+  </si>
+  <si>
+    <t>Target:</t>
   </si>
 </sst>
 </file>
@@ -89,14 +98,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -109,14 +128,1181 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speed mm/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$4:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.820577164366373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.746031746031743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.910505836575879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.601642710472277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.422535211267615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.956521739130437</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.541401273885356</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.63380281690141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.48905109489051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123.45679012345678</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128.75536480686694</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134.52914798206277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>141.50943396226415</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>148.51485148514851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A42-47DD-8B06-0EE0A058DD1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534427064"/>
+        <c:axId val="534430264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534427064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Thymio Target</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534430264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="534430264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Speed (mm/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534427064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>731043</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>731043</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BB156D-81BE-3ABE-9CD0-BF5F468185D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26B4EBE0-296D-4EF3-AACF-C6A27DD6104E}" name="Tabelle1" displayName="Tabelle1" ref="A3:C23" totalsRowShown="0">
-  <autoFilter ref="A3:C23" xr:uid="{26B4EBE0-296D-4EF3-AACF-C6A27DD6104E}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26B4EBE0-296D-4EF3-AACF-C6A27DD6104E}" name="Tabelle1" displayName="Tabelle1" ref="A3:D23" totalsRowShown="0">
+  <autoFilter ref="A3:D23" xr:uid="{26B4EBE0-296D-4EF3-AACF-C6A27DD6104E}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{89C29AFD-22F2-4FC3-A027-CC46C58BAF46}" name="Target"/>
     <tableColumn id="2" xr3:uid="{AD2552C1-31C6-4C8C-B60F-410412572BC1}" name="Duration ms"/>
     <tableColumn id="3" xr3:uid="{E45E08B1-6343-4E40-84A1-BC31C4CE8C9A}" name="Speed mm/ms">
       <calculatedColumnFormula>$B$1/B4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E77A2FC6-4243-4AD6-9354-6169A50F3CA5}" name="Speed mm/s" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Speed mm/ms]]*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -420,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E54E9A-EEE8-4159-B03E-B9FEE2256781}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -433,7 +1619,7 @@
     <col min="3" max="3" width="14.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +1627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -451,194 +1637,358 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>25</v>
       </c>
-      <c r="C4" t="e">
+      <c r="B4">
+        <v>33000</v>
+      </c>
+      <c r="C4">
         <f>$B$1/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="D4">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>9.0909090909090899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>50</v>
       </c>
-      <c r="C5" t="e">
+      <c r="B5">
+        <v>15940</v>
+      </c>
+      <c r="C5">
         <f t="shared" ref="C5:C23" si="0">$B$1/B5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.8820577164366373E-2</v>
+      </c>
+      <c r="D5">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>18.820577164366373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>75</v>
       </c>
-      <c r="C6" t="e">
+      <c r="B6">
+        <v>12000</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>100</v>
       </c>
-      <c r="C7" t="e">
+      <c r="B7">
+        <v>9450</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="D7">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>31.746031746031743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>125</v>
       </c>
-      <c r="C8" t="e">
+      <c r="B8">
+        <v>7710</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3.8910505836575876E-2</v>
+      </c>
+      <c r="D8">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>38.910505836575879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>150</v>
       </c>
-      <c r="C9" t="e">
+      <c r="B9">
+        <v>6400</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="D9">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>175</v>
       </c>
-      <c r="C10" t="e">
+      <c r="B10">
+        <v>5700</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="D10">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>52.631578947368418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>200</v>
       </c>
-      <c r="C11" t="e">
+      <c r="B11">
+        <v>4870</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>6.1601642710472276E-2</v>
+      </c>
+      <c r="D11">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>61.601642710472277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>225</v>
       </c>
-      <c r="C12" t="e">
+      <c r="B12">
+        <v>4260</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="D12">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>70.422535211267615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>250</v>
       </c>
-      <c r="C13" t="e">
+      <c r="B13">
+        <v>3750</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.08</v>
+      </c>
+      <c r="D13">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>275</v>
       </c>
-      <c r="C14" t="e">
+      <c r="B14">
+        <v>3450</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="D14">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>86.956521739130437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>300</v>
       </c>
       <c r="B15">
-        <v>3400</v>
+        <v>3140</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9.5541401273885357E-2</v>
+      </c>
+      <c r="D15">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>95.541401273885356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>325</v>
       </c>
-      <c r="C16" t="e">
+      <c r="B16">
+        <v>2840</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.10563380281690141</v>
+      </c>
+      <c r="D16">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>105.63380281690141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>350</v>
       </c>
-      <c r="C17" t="e">
+      <c r="B17">
+        <v>2740</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.10948905109489052</v>
+      </c>
+      <c r="D17">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>109.48905109489051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>375</v>
       </c>
-      <c r="C18" t="e">
+      <c r="B18">
+        <v>2640</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="D18">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>113.63636363636363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>400</v>
       </c>
-      <c r="C19" t="e">
+      <c r="B19">
+        <v>2430</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12345679012345678</v>
+      </c>
+      <c r="D19">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>123.45679012345678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>425</v>
       </c>
-      <c r="C20" t="e">
+      <c r="B20">
+        <v>2330</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12875536480686695</v>
+      </c>
+      <c r="D20">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>128.75536480686694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>450</v>
       </c>
-      <c r="C21" t="e">
+      <c r="B21">
+        <v>2230</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.13452914798206278</v>
+      </c>
+      <c r="D21">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>134.52914798206277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>475</v>
       </c>
-      <c r="C22" t="e">
+      <c r="B22">
+        <v>2120</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="D22">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>141.50943396226415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>500</v>
       </c>
-      <c r="C23" t="e">
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.14851485148514851</v>
+      </c>
+      <c r="D23">
+        <f>Tabelle1[[#This Row],[Speed mm/ms]]*1000</f>
+        <v>148.51485148514851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29">
+        <f>C28*3.3</f>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>